--- a/fuentes/contenidos/grado07/guion07/Escaleta_LE_07_07_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion07/Escaleta_LE_07_07_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="13760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="309">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1431,7 +1431,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="141">
+  <cellStyleXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1572,6 +1572,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="65">
@@ -1651,25 +1653,29 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1696,24 +1702,20 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="141">
+  <cellStyles count="143">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1754,6 +1756,7 @@
     <cellStyle name="Hipervínculo" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1854,6 +1857,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="139" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2173,8 +2177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="D30" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2204,94 +2208,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="39" t="s">
+      <c r="N1" s="59"/>
+      <c r="O1" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="S1" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="U1" s="62" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="47"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="55"/>
       <c r="M2" s="1" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="40"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="62"/>
     </row>
     <row r="3" spans="1:21" ht="70">
       <c r="A3" s="11" t="s">
@@ -2656,7 +2660,7 @@
       <c r="H9" s="24">
         <v>7</v>
       </c>
-      <c r="I9" s="53" t="s">
+      <c r="I9" s="38" t="s">
         <v>152</v>
       </c>
       <c r="J9" s="31" t="s">
@@ -2678,19 +2682,19 @@
       <c r="P9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="54">
+      <c r="Q9" s="39">
         <v>6</v>
       </c>
-      <c r="R9" s="55" t="s">
+      <c r="R9" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="S9" s="54" t="s">
+      <c r="S9" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="T9" s="56" t="s">
+      <c r="T9" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="U9" s="54" t="s">
+      <c r="U9" s="39" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2835,7 +2839,7 @@
       <c r="H12" s="24">
         <v>10</v>
       </c>
-      <c r="I12" s="53" t="s">
+      <c r="I12" s="38" t="s">
         <v>152</v>
       </c>
       <c r="J12" s="31" t="s">
@@ -2945,7 +2949,7 @@
       <c r="D14" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="42" t="s">
         <v>180</v>
       </c>
       <c r="F14" s="22"/>
@@ -2955,7 +2959,7 @@
       <c r="H14" s="24">
         <v>12</v>
       </c>
-      <c r="I14" s="53" t="s">
+      <c r="I14" s="38" t="s">
         <v>152</v>
       </c>
       <c r="J14" s="31" t="s">
@@ -3006,7 +3010,7 @@
       <c r="D15" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="42" t="s">
         <v>180</v>
       </c>
       <c r="F15" s="22"/>
@@ -3065,7 +3069,7 @@
       <c r="D16" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="42" t="s">
         <v>180</v>
       </c>
       <c r="F16" s="22"/>
@@ -3132,7 +3136,7 @@
       <c r="H17" s="24">
         <v>15</v>
       </c>
-      <c r="I17" s="53" t="s">
+      <c r="I17" s="38" t="s">
         <v>152</v>
       </c>
       <c r="J17" s="31" t="s">
@@ -3425,7 +3429,7 @@
       <c r="H22" s="24">
         <v>20</v>
       </c>
-      <c r="I22" s="53" t="s">
+      <c r="I22" s="38" t="s">
         <v>152</v>
       </c>
       <c r="J22" s="31" t="s">
@@ -3718,7 +3722,7 @@
       <c r="H27" s="24">
         <v>25</v>
       </c>
-      <c r="I27" s="53" t="s">
+      <c r="I27" s="38" t="s">
         <v>152</v>
       </c>
       <c r="J27" s="31" t="s">
@@ -4015,7 +4019,9 @@
       <c r="H32" s="24">
         <v>30</v>
       </c>
-      <c r="I32" s="25"/>
+      <c r="I32" s="38" t="s">
+        <v>152</v>
+      </c>
       <c r="J32" s="31" t="s">
         <v>282</v>
       </c>
@@ -4120,7 +4126,7 @@
       <c r="C34" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="43" t="s">
         <v>196</v>
       </c>
       <c r="E34" s="21"/>
@@ -4151,19 +4157,19 @@
       <c r="P34" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="54">
+      <c r="Q34" s="39">
         <v>6</v>
       </c>
-      <c r="R34" s="55" t="s">
+      <c r="R34" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="S34" s="54" t="s">
+      <c r="S34" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="T34" s="56" t="s">
+      <c r="T34" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="U34" s="54" t="s">
+      <c r="U34" s="39" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4177,7 +4183,7 @@
       <c r="C35" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="58" t="s">
+      <c r="D35" s="43" t="s">
         <v>196</v>
       </c>
       <c r="E35" s="21"/>
@@ -4234,7 +4240,7 @@
       <c r="C36" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="58" t="s">
+      <c r="D36" s="43" t="s">
         <v>196</v>
       </c>
       <c r="E36" s="21"/>
@@ -4312,29 +4318,29 @@
       <c r="L37" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M37" s="60"/>
+      <c r="M37" s="45"/>
       <c r="N37" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="O37" s="59" t="s">
+      <c r="O37" s="44" t="s">
         <v>300</v>
       </c>
       <c r="P37" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="54">
+      <c r="Q37" s="39">
         <v>6</v>
       </c>
-      <c r="R37" s="55" t="s">
+      <c r="R37" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="S37" s="54" t="s">
+      <c r="S37" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="T37" s="56" t="s">
+      <c r="T37" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="U37" s="54" t="s">
+      <c r="U37" s="39" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4369,17 +4375,17 @@
       <c r="L38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="M38" s="60"/>
-      <c r="N38" s="60"/>
-      <c r="O38" s="59"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="44"/>
       <c r="P38" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="55"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="56"/>
-      <c r="U38" s="54"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="39"/>
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="11" t="s">
@@ -4412,29 +4418,29 @@
       <c r="L39" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M39" s="60"/>
-      <c r="N39" s="60" t="s">
+      <c r="M39" s="45"/>
+      <c r="N39" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="O39" s="59" t="s">
+      <c r="O39" s="44" t="s">
         <v>290</v>
       </c>
       <c r="P39" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q39" s="61">
+      <c r="Q39" s="46">
         <v>6</v>
       </c>
-      <c r="R39" s="62" t="s">
+      <c r="R39" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="S39" s="63" t="s">
+      <c r="S39" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="T39" s="64" t="s">
+      <c r="T39" s="49" t="s">
         <v>291</v>
       </c>
-      <c r="U39" s="63" t="s">
+      <c r="U39" s="48" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4467,29 +4473,29 @@
       <c r="L40" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M40" s="60"/>
-      <c r="N40" s="60" t="s">
+      <c r="M40" s="45"/>
+      <c r="N40" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="O40" s="59" t="s">
+      <c r="O40" s="44" t="s">
         <v>297</v>
       </c>
       <c r="P40" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Q40" s="54">
+      <c r="Q40" s="39">
         <v>6</v>
       </c>
-      <c r="R40" s="55" t="s">
+      <c r="R40" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="S40" s="54" t="s">
+      <c r="S40" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="T40" s="56" t="s">
+      <c r="T40" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="U40" s="54" t="s">
+      <c r="U40" s="39" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5186,6 +5192,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5200,15 +5212,9 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I8 I10:I11 I13 I15:I16 I18:I21 I23:I26 I28:I41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I8 I10:I11 I13 I15:I16 I18:I21 I23:I26 I28:I31 I33:I41">
       <formula1>$D$48:$D$49</formula1>
     </dataValidation>
   </dataValidations>
